--- a/11th_day/master_data_upload.xlsx
+++ b/11th_day/master_data_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A200209603\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD0E546A-94B2-47A4-96E8-EFFB82C1F4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D1F7F9-59AE-4267-8E88-565F64E9E16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35C1E2A1-F1A1-44AA-86D3-73F6F7225333}"/>
   </bookViews>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">G/L Account       </t>
   </si>
   <si>
-    <t xml:space="preserve">Master_Data_Type  </t>
-  </si>
-  <si>
     <t>Master_Data_Volume</t>
   </si>
   <si>
     <t>Master_Data_Used_Volume</t>
+  </si>
+  <si>
+    <t>Master_Data_Type</t>
   </si>
 </sst>
 </file>
@@ -410,9 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAD0BE4-6F96-4C23-962E-57D629BA1BFC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -423,13 +421,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
